--- a/2000_Furusawa/data/processed/C12.xlsx
+++ b/2000_Furusawa/data/processed/C12.xlsx
@@ -137,7 +137,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
